--- a/DA3_Data.xlsx
+++ b/DA3_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365tsukuba.sharepoint.com/sites/DA3662/Shared Documents/General/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2428" documentId="8_{231BD91D-1781-744D-87C5-9198913F0912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25C4722C-3993-481F-9452-2FED2DD24569}"/>
+  <xr:revisionPtr revIDLastSave="2542" documentId="8_{231BD91D-1781-744D-87C5-9198913F0912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{596FBB5A-5E2D-4AD8-A890-E82C357579EE}"/>
   <bookViews>
-    <workbookView xWindow="6048" yWindow="2904" windowWidth="17208" windowHeight="12204" activeTab="1" xr2:uid="{CB46426A-DED2-C442-A925-CD13B07AE853}"/>
+    <workbookView xWindow="1272" yWindow="2304" windowWidth="17208" windowHeight="12204" xr2:uid="{CB46426A-DED2-C442-A925-CD13B07AE853}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="157">
   <si>
     <t>丸山</t>
   </si>
@@ -427,10 +427,6 @@
   </si>
   <si>
     <t>Shokudo keyaki</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>N/A</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -614,12 +610,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -634,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,6 +648,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1011,11 +1015,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429D35B8-1ED7-4745-97DD-C4F276540C3F}">
   <dimension ref="A1:CX24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BU5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="CE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:BY24"/>
+      <selection pane="bottomRight" activeCell="BP9" sqref="BP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -1811,10 +1815,10 @@
         <v>101</v>
       </c>
       <c r="BG3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BH3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BI3" t="s">
         <v>104</v>
@@ -1841,1646 +1845,1646 @@
         <v>112</v>
       </c>
       <c r="BQ3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS3" t="s">
         <v>114</v>
       </c>
-      <c r="BR3" t="s">
-        <v>122</v>
-      </c>
-      <c r="BS3" t="s">
+      <c r="BT3" t="s">
         <v>115</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="BU3" t="s">
         <v>116</v>
       </c>
-      <c r="BU3" t="s">
+      <c r="BV3" t="s">
         <v>117</v>
       </c>
-      <c r="BV3" t="s">
+      <c r="BW3" t="s">
         <v>118</v>
       </c>
-      <c r="BW3" t="s">
+      <c r="BX3" t="s">
         <v>119</v>
       </c>
-      <c r="BX3" t="s">
+      <c r="BY3" t="s">
         <v>120</v>
       </c>
-      <c r="BY3" t="s">
-        <v>121</v>
-      </c>
       <c r="BZ3" t="s">
+        <v>132</v>
+      </c>
+      <c r="CA3" t="s">
         <v>133</v>
       </c>
-      <c r="CA3" t="s">
+      <c r="CB3" t="s">
         <v>134</v>
       </c>
-      <c r="CB3" t="s">
+      <c r="CC3" t="s">
         <v>135</v>
       </c>
-      <c r="CC3" t="s">
+      <c r="CD3" t="s">
         <v>136</v>
       </c>
-      <c r="CD3" t="s">
+      <c r="CE3" t="s">
         <v>137</v>
       </c>
-      <c r="CE3" t="s">
+      <c r="CF3" t="s">
         <v>138</v>
       </c>
-      <c r="CF3" t="s">
+      <c r="CG3" t="s">
         <v>139</v>
       </c>
-      <c r="CG3" t="s">
+      <c r="CH3" t="s">
         <v>140</v>
       </c>
-      <c r="CH3" t="s">
+      <c r="CI3" t="s">
         <v>141</v>
       </c>
-      <c r="CI3" t="s">
+      <c r="CJ3" t="s">
         <v>142</v>
       </c>
-      <c r="CJ3" t="s">
+      <c r="CK3" t="s">
         <v>143</v>
       </c>
-      <c r="CK3" t="s">
+      <c r="CL3" t="s">
         <v>144</v>
       </c>
-      <c r="CL3" t="s">
+      <c r="CM3" t="s">
         <v>145</v>
       </c>
-      <c r="CM3" t="s">
+      <c r="CN3" t="s">
         <v>146</v>
       </c>
-      <c r="CN3" t="s">
+      <c r="CO3" t="s">
         <v>147</v>
       </c>
-      <c r="CO3" t="s">
+      <c r="CP3" t="s">
         <v>148</v>
       </c>
-      <c r="CP3" t="s">
+      <c r="CQ3" t="s">
         <v>149</v>
       </c>
-      <c r="CQ3" t="s">
+      <c r="CR3" t="s">
         <v>150</v>
       </c>
-      <c r="CR3" t="s">
+      <c r="CS3" t="s">
         <v>151</v>
       </c>
-      <c r="CS3" t="s">
+      <c r="CT3" t="s">
         <v>152</v>
       </c>
-      <c r="CT3" t="s">
+      <c r="CU3" t="s">
         <v>153</v>
       </c>
-      <c r="CU3" t="s">
+      <c r="CV3" t="s">
+        <v>156</v>
+      </c>
+      <c r="CW3" t="s">
         <v>154</v>
       </c>
-      <c r="CV3" t="s">
-        <v>157</v>
-      </c>
-      <c r="CW3" t="s">
+      <c r="CX3" t="s">
         <v>155</v>
       </c>
-      <c r="CX3" t="s">
-        <v>156</v>
-      </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
+    <row r="4" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>3.99</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>3.78</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>3.78</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>3.76</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>3.73</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>3.72</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>3.72</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <v>3.7</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="5">
         <v>3.7</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="5">
         <v>3.7</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="5">
         <v>3.69</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="5">
         <v>3.68</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="5">
         <v>3.68</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="5">
         <v>3.66</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="5">
         <v>3.66</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="5">
         <v>3.65</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="5">
         <v>3.65</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="5">
         <v>3.65</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="5">
         <v>3.65</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="5">
         <v>3.65</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="5">
         <v>3.64</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="5">
         <v>3.64</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="5">
         <v>3.63</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="5">
         <v>3.62</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="5">
         <v>3.61</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="5">
         <v>3.5</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="5">
         <v>3.5</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="5">
         <v>3.5</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="5">
         <v>3.5</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="5">
         <v>3.49</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="5">
         <v>3.49</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="5">
         <v>3.49</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="5">
         <v>3.49</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="5">
         <v>3.49</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="5">
         <v>3.49</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="5">
         <v>3.49</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="5">
         <v>3.49</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="5">
         <v>3.48</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="5">
         <v>3.48</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" s="5">
         <v>3.48</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" s="5">
         <v>3.47</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="5">
         <v>3.47</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="5">
         <v>3.47</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" s="5">
         <v>3.47</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" s="5">
         <v>3.47</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" s="5">
         <v>3.47</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" s="5">
         <v>3.46</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" s="5">
         <v>3.46</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" s="5">
         <v>3.46</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" s="5">
         <v>3.46</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" s="5">
         <v>3.3</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" s="5">
         <v>3.28</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" s="5">
         <v>3.28</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" s="5">
         <v>3.28</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" s="5">
         <v>3.28</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" s="5">
         <v>3.28</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" s="5">
         <v>3.28</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" s="5">
         <v>3.27</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" s="5">
         <v>3.27</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" s="5">
         <v>3.27</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" s="5">
         <v>3.27</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" s="5">
         <v>3.27</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" s="5">
         <v>3.26</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" s="5">
         <v>3.26</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" s="5">
         <v>3.25</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" s="5">
         <v>3.25</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" s="5">
         <v>3.24</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" s="5">
         <v>3.19</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" s="5">
         <v>3.23</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" s="5">
         <v>3.23</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" s="5">
         <v>3.23</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" s="5">
         <v>3.23</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" s="5">
         <v>3.22</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" s="5">
         <v>3.2</v>
       </c>
-      <c r="BY4">
+      <c r="BY4" s="5">
         <v>3.2</v>
       </c>
-      <c r="BZ4">
+      <c r="BZ4" s="5">
         <v>3.18</v>
       </c>
-      <c r="CA4">
+      <c r="CA4" s="5">
         <v>3.16</v>
       </c>
-      <c r="CB4">
+      <c r="CB4" s="5">
         <v>3.16</v>
       </c>
-      <c r="CC4">
+      <c r="CC4" s="5">
         <v>3.16</v>
       </c>
-      <c r="CD4">
+      <c r="CD4" s="5">
         <v>3.14</v>
       </c>
-      <c r="CE4">
+      <c r="CE4" s="5">
         <v>3.14</v>
       </c>
-      <c r="CF4">
+      <c r="CF4" s="5">
         <v>3.13</v>
       </c>
-      <c r="CG4">
+      <c r="CG4" s="5">
         <v>3.12</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" s="5">
         <v>3.12</v>
       </c>
-      <c r="CI4">
+      <c r="CI4" s="5">
         <v>3.12</v>
       </c>
-      <c r="CJ4">
+      <c r="CJ4" s="5">
         <v>3.12</v>
       </c>
-      <c r="CK4">
+      <c r="CK4" s="5">
         <v>3.12</v>
       </c>
-      <c r="CL4">
+      <c r="CL4" s="5">
         <v>3.12</v>
       </c>
-      <c r="CM4">
+      <c r="CM4" s="5">
         <v>3.11</v>
       </c>
-      <c r="CN4">
+      <c r="CN4" s="5">
         <v>3.09</v>
       </c>
-      <c r="CO4">
+      <c r="CO4" s="5">
         <v>3.09</v>
       </c>
-      <c r="CP4">
+      <c r="CP4" s="5">
         <v>3.09</v>
       </c>
-      <c r="CQ4">
+      <c r="CQ4" s="5">
         <v>3.09</v>
       </c>
-      <c r="CR4">
+      <c r="CR4" s="5">
         <v>3.09</v>
       </c>
-      <c r="CS4">
+      <c r="CS4" s="5">
         <v>3.09</v>
       </c>
-      <c r="CT4">
+      <c r="CT4" s="5">
         <v>3.09</v>
       </c>
-      <c r="CU4">
+      <c r="CU4" s="5">
         <v>3.09</v>
       </c>
-      <c r="CV4">
+      <c r="CV4" s="5">
         <v>3.09</v>
       </c>
-      <c r="CW4">
+      <c r="CW4" s="5">
         <v>3.09</v>
       </c>
-      <c r="CX4">
+      <c r="CX4" s="5">
         <v>3.09</v>
       </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
+    <row r="5" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>6</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>10</v>
+      </c>
+      <c r="M5" s="5">
+        <v>3</v>
+      </c>
+      <c r="N5" s="5">
+        <v>3</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>5</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>4</v>
+      </c>
+      <c r="T5" s="5">
+        <v>5</v>
+      </c>
+      <c r="U5" s="5">
+        <v>2</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="5">
+        <v>1</v>
+      </c>
+      <c r="X5" s="5">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>5</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AO5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>5</v>
+      </c>
+      <c r="AQ5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AR5" s="5">
+        <v>6</v>
+      </c>
+      <c r="AS5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="5">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AV5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AW5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AX5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="5">
+        <v>3</v>
+      </c>
+      <c r="AZ5" s="5">
+        <v>4</v>
+      </c>
+      <c r="BA5" s="5">
+        <v>7</v>
+      </c>
+      <c r="BB5" s="5">
+        <v>5</v>
+      </c>
+      <c r="BC5" s="5">
+        <v>3</v>
+      </c>
+      <c r="BD5" s="5">
+        <v>7</v>
+      </c>
+      <c r="BE5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BF5" s="5">
+        <v>5</v>
+      </c>
+      <c r="BG5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="5">
+        <v>3</v>
+      </c>
+      <c r="BI5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BJ5" s="5">
+        <v>5</v>
+      </c>
+      <c r="BK5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BL5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BN5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BO5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BQ5" s="5">
+        <v>3</v>
+      </c>
+      <c r="BR5" s="5">
+        <v>9</v>
+      </c>
+      <c r="BS5" s="5">
+        <v>2</v>
+      </c>
+      <c r="BT5" s="5">
+        <v>3</v>
+      </c>
+      <c r="BU5" s="5">
+        <v>3</v>
+      </c>
+      <c r="BV5" s="5">
+        <v>3</v>
+      </c>
+      <c r="BW5" s="5">
+        <v>9</v>
+      </c>
+      <c r="BX5" s="5">
+        <v>1</v>
+      </c>
+      <c r="BY5" s="5">
+        <v>10</v>
+      </c>
+      <c r="BZ5" s="5">
+        <v>3</v>
+      </c>
+      <c r="CA5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CB5" s="5">
+        <v>2</v>
+      </c>
+      <c r="CC5" s="5">
+        <v>2</v>
+      </c>
+      <c r="CD5" s="5">
+        <v>2</v>
+      </c>
+      <c r="CE5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CF5" s="5">
+        <v>5</v>
+      </c>
+      <c r="CG5" s="5">
+        <v>2</v>
+      </c>
+      <c r="CH5" s="5">
+        <v>2</v>
+      </c>
+      <c r="CI5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CJ5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CK5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CL5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CM5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CN5" s="5">
+        <v>2</v>
+      </c>
+      <c r="CO5" s="5">
+        <v>2</v>
+      </c>
+      <c r="CP5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CQ5" s="5">
+        <v>2</v>
+      </c>
+      <c r="CR5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CS5" s="5">
+        <v>3</v>
+      </c>
+      <c r="CT5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CU5" s="5">
+        <v>4</v>
+      </c>
+      <c r="CV5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CW5" s="5">
+        <v>1</v>
+      </c>
+      <c r="CX5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
+      <c r="C6" s="5">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5">
         <v>9</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
+      <c r="F6" s="5">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>12</v>
+      </c>
+      <c r="K6" s="5">
+        <v>12</v>
+      </c>
+      <c r="L6" s="5">
+        <v>11</v>
+      </c>
+      <c r="M6" s="5">
+        <v>15</v>
+      </c>
+      <c r="N6" s="5">
+        <v>24</v>
+      </c>
+      <c r="O6" s="5">
+        <v>10</v>
+      </c>
+      <c r="P6" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>9</v>
+      </c>
+      <c r="R6" s="5">
+        <v>12</v>
+      </c>
+      <c r="S6" s="5">
+        <v>15</v>
+      </c>
+      <c r="T6" s="5">
+        <v>12</v>
+      </c>
+      <c r="U6" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="V6" s="5">
+        <v>12</v>
+      </c>
+      <c r="W6" s="5">
+        <v>11</v>
+      </c>
+      <c r="X6" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>8</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>16</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>13</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>17</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>9.75</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>13</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>6.5</v>
+      </c>
+      <c r="AK6" s="5">
+        <v>13</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>10</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>11</v>
+      </c>
+      <c r="AO6" s="5">
+        <v>24</v>
+      </c>
+      <c r="AP6" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="AQ6" s="5">
+        <v>12</v>
+      </c>
+      <c r="AR6" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="AS6" s="5">
+        <v>14.5</v>
+      </c>
+      <c r="AT6" s="5">
+        <v>11.25</v>
+      </c>
+      <c r="AU6" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="AV6" s="5">
+        <v>12</v>
+      </c>
+      <c r="AW6" s="5">
+        <v>21</v>
+      </c>
+      <c r="AX6" s="5">
+        <v>17</v>
+      </c>
+      <c r="AY6" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="AZ6" s="5">
+        <v>4</v>
+      </c>
+      <c r="BA6" s="5">
+        <v>11</v>
+      </c>
+      <c r="BB6" s="5">
+        <v>11</v>
+      </c>
+      <c r="BC6" s="5">
+        <v>11</v>
+      </c>
+      <c r="BD6" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="BE6" s="5">
+        <v>11</v>
+      </c>
+      <c r="BF6" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="BG6" s="5">
+        <v>24</v>
+      </c>
+      <c r="BH6" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="BI6" s="5">
+        <v>11</v>
+      </c>
+      <c r="BJ6" s="5">
+        <v>24</v>
+      </c>
+      <c r="BK6" s="5">
+        <v>11</v>
+      </c>
+      <c r="BL6" s="5">
+        <v>11</v>
+      </c>
+      <c r="BM6" s="5">
+        <v>24</v>
+      </c>
+      <c r="BN6" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="BO6" s="5">
+        <v>11</v>
+      </c>
+      <c r="BP6" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="BQ6" s="5">
+        <v>10</v>
+      </c>
+      <c r="BR6" s="5">
+        <v>24</v>
+      </c>
+      <c r="BS6" s="5">
+        <v>11</v>
+      </c>
+      <c r="BT6" s="5">
+        <v>11</v>
+      </c>
+      <c r="BU6" s="5">
+        <v>11</v>
+      </c>
+      <c r="BV6" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="BW6" s="5">
+        <v>24</v>
+      </c>
+      <c r="BX6" s="5">
+        <v>11</v>
+      </c>
+      <c r="BY6" s="5">
+        <v>11</v>
+      </c>
+      <c r="BZ6" s="5">
+        <v>24</v>
+      </c>
+      <c r="CA6" s="5">
+        <v>24</v>
+      </c>
+      <c r="CB6" s="5">
+        <v>12</v>
+      </c>
+      <c r="CC6" s="5">
+        <v>18.5</v>
+      </c>
+      <c r="CD6" s="5">
+        <v>10</v>
+      </c>
+      <c r="CE6" s="5">
+        <v>12</v>
+      </c>
+      <c r="CF6" s="5">
+        <v>8</v>
+      </c>
+      <c r="CG6" s="5">
+        <v>9</v>
+      </c>
+      <c r="CH6" s="5">
+        <v>12</v>
+      </c>
+      <c r="CI6" s="5">
+        <v>14</v>
+      </c>
+      <c r="CJ6" s="5">
+        <v>17</v>
+      </c>
+      <c r="CK6" s="5">
+        <v>3</v>
+      </c>
+      <c r="CL6" s="5">
+        <v>9</v>
+      </c>
+      <c r="CM6" s="5">
+        <v>3</v>
+      </c>
+      <c r="CN6" s="5">
+        <v>21</v>
+      </c>
+      <c r="CO6" s="5">
+        <v>15</v>
+      </c>
+      <c r="CP6" s="5">
+        <v>11</v>
+      </c>
+      <c r="CQ6" s="5">
+        <v>17</v>
+      </c>
+      <c r="CR6" s="5">
+        <v>12</v>
+      </c>
+      <c r="CS6" s="5">
+        <v>18</v>
+      </c>
+      <c r="CT6" s="5">
+        <v>12</v>
+      </c>
+      <c r="CU6" s="5">
+        <v>12</v>
+      </c>
+      <c r="CV6" s="5">
+        <v>9</v>
+      </c>
+      <c r="CW6" s="5">
+        <v>10</v>
+      </c>
+      <c r="CX6" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>1</v>
+      </c>
+      <c r="V7" s="5">
+        <v>1</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="5">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="5">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="5">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="5">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="5">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="5">
+        <v>1</v>
+      </c>
+      <c r="BX7" s="5">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="5">
+        <v>1</v>
+      </c>
+      <c r="BZ7" s="5">
+        <v>1</v>
+      </c>
+      <c r="CA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="5">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="5">
+        <v>1</v>
+      </c>
+      <c r="CD7" s="5">
+        <v>1</v>
+      </c>
+      <c r="CE7" s="5">
+        <v>2</v>
+      </c>
+      <c r="CF7" s="5">
+        <v>1</v>
+      </c>
+      <c r="CG7" s="5">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="5">
+        <v>1</v>
+      </c>
+      <c r="CI7" s="5">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="5">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="5">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="5">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="5">
+        <v>0</v>
+      </c>
+      <c r="CN7" s="5">
+        <v>1</v>
+      </c>
+      <c r="CO7" s="5">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="5">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="5">
+        <v>0</v>
+      </c>
+      <c r="CR7" s="5">
+        <v>3</v>
+      </c>
+      <c r="CS7" s="5">
+        <v>0</v>
+      </c>
+      <c r="CT7" s="5">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="5">
+        <v>2</v>
+      </c>
+      <c r="CV7" s="5">
+        <v>1</v>
+      </c>
+      <c r="CW7" s="5">
+        <v>0</v>
+      </c>
+      <c r="CX7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="5">
         <v>6</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
+      <c r="D8" s="5">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5">
+        <v>18</v>
+      </c>
+      <c r="I8" s="5">
+        <v>9</v>
+      </c>
+      <c r="J8" s="5">
+        <v>13</v>
+      </c>
+      <c r="K8" s="5">
+        <v>16</v>
+      </c>
+      <c r="L8" s="5">
+        <v>26</v>
+      </c>
+      <c r="M8" s="5">
+        <v>15</v>
+      </c>
+      <c r="N8" s="5">
         <v>10</v>
       </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>4</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>4</v>
-      </c>
-      <c r="T5">
-        <v>5</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>7</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>2</v>
-      </c>
-      <c r="AA5">
-        <v>7</v>
-      </c>
-      <c r="AB5">
-        <v>2</v>
-      </c>
-      <c r="AC5">
-        <v>1</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>3</v>
-      </c>
-      <c r="AF5">
-        <v>2</v>
-      </c>
-      <c r="AG5">
-        <v>2</v>
-      </c>
-      <c r="AH5">
-        <v>2</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>3</v>
-      </c>
-      <c r="AK5">
-        <v>3</v>
-      </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
-      <c r="AM5">
-        <v>5</v>
-      </c>
-      <c r="AN5">
-        <v>3</v>
-      </c>
-      <c r="AO5">
-        <v>4</v>
-      </c>
-      <c r="AP5">
-        <v>5</v>
-      </c>
-      <c r="AQ5">
-        <v>3</v>
-      </c>
-      <c r="AR5">
-        <v>6</v>
-      </c>
-      <c r="AS5">
-        <v>1</v>
-      </c>
-      <c r="AT5">
-        <v>2</v>
-      </c>
-      <c r="AU5">
-        <v>3</v>
-      </c>
-      <c r="AV5">
-        <v>3</v>
-      </c>
-      <c r="AW5">
-        <v>3</v>
-      </c>
-      <c r="AX5">
-        <v>1</v>
-      </c>
-      <c r="AY5">
-        <v>3</v>
-      </c>
-      <c r="AZ5">
-        <v>4</v>
-      </c>
-      <c r="BA5">
-        <v>7</v>
-      </c>
-      <c r="BB5">
-        <v>5</v>
-      </c>
-      <c r="BC5">
-        <v>3</v>
-      </c>
-      <c r="BD5">
-        <v>7</v>
-      </c>
-      <c r="BE5">
-        <v>2</v>
-      </c>
-      <c r="BF5">
-        <v>5</v>
-      </c>
-      <c r="BG5">
-        <v>1</v>
-      </c>
-      <c r="BH5">
-        <v>3</v>
-      </c>
-      <c r="BI5">
-        <v>2</v>
-      </c>
-      <c r="BJ5">
-        <v>5</v>
-      </c>
-      <c r="BK5">
-        <v>2</v>
-      </c>
-      <c r="BL5">
-        <v>1</v>
-      </c>
-      <c r="BM5">
-        <v>2</v>
-      </c>
-      <c r="BN5">
-        <v>2</v>
-      </c>
-      <c r="BO5">
-        <v>1</v>
-      </c>
-      <c r="BP5">
-        <v>2</v>
-      </c>
-      <c r="BQ5">
-        <v>3</v>
-      </c>
-      <c r="BR5">
+      <c r="O8" s="5">
+        <v>10</v>
+      </c>
+      <c r="P8" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>19</v>
+      </c>
+      <c r="R8" s="5">
+        <v>11</v>
+      </c>
+      <c r="S8" s="5">
+        <v>14</v>
+      </c>
+      <c r="T8" s="5">
+        <v>12</v>
+      </c>
+      <c r="U8" s="5">
+        <v>15</v>
+      </c>
+      <c r="V8" s="5">
+        <v>23</v>
+      </c>
+      <c r="W8" s="5">
+        <v>16</v>
+      </c>
+      <c r="X8" s="5">
+        <v>12</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>13</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>12</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>12</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>10</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>10</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>11</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>27</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>55</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>18</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>27</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>24</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>16</v>
+      </c>
+      <c r="AL8" s="5">
         <v>9</v>
       </c>
-      <c r="BS5">
-        <v>2</v>
-      </c>
-      <c r="BT5">
-        <v>3</v>
-      </c>
-      <c r="BU5">
-        <v>3</v>
-      </c>
-      <c r="BV5">
-        <v>3</v>
-      </c>
-      <c r="BW5">
-        <v>9</v>
-      </c>
-      <c r="BX5">
-        <v>1</v>
-      </c>
-      <c r="BY5">
+      <c r="AM8" s="5">
+        <v>26</v>
+      </c>
+      <c r="AN8" s="5">
+        <v>70</v>
+      </c>
+      <c r="AO8" s="5">
+        <v>24</v>
+      </c>
+      <c r="AP8" s="5">
+        <v>20</v>
+      </c>
+      <c r="AQ8" s="5">
+        <v>20</v>
+      </c>
+      <c r="AR8" s="5">
+        <v>100</v>
+      </c>
+      <c r="AS8" s="5">
+        <v>16</v>
+      </c>
+      <c r="AT8" s="5">
+        <v>45</v>
+      </c>
+      <c r="AU8" s="5">
+        <v>16</v>
+      </c>
+      <c r="AV8" s="5">
+        <v>33</v>
+      </c>
+      <c r="AW8" s="5">
+        <v>40</v>
+      </c>
+      <c r="AX8" s="5">
         <v>10</v>
       </c>
-      <c r="BZ5">
-        <v>0</v>
-      </c>
-      <c r="CA5">
-        <v>6</v>
-      </c>
-      <c r="CB5">
-        <v>10</v>
-      </c>
-      <c r="CC5">
-        <v>2</v>
-      </c>
-      <c r="CD5">
+      <c r="AY8" s="5">
+        <v>44</v>
+      </c>
+      <c r="AZ8" s="5">
+        <v>12</v>
+      </c>
+      <c r="BA8" s="5">
+        <v>30</v>
+      </c>
+      <c r="BB8" s="5">
+        <v>26</v>
+      </c>
+      <c r="BC8" s="5">
         <v>8</v>
       </c>
-      <c r="CE5">
-        <v>6</v>
-      </c>
-      <c r="CF5">
-        <v>3</v>
-      </c>
-      <c r="CG5">
+      <c r="BD8" s="5">
+        <v>50</v>
+      </c>
+      <c r="BE8" s="5">
+        <v>54</v>
+      </c>
+      <c r="BF8" s="5">
         <v>11</v>
       </c>
-      <c r="CH5">
-        <v>3</v>
-      </c>
-      <c r="CI5">
-        <v>2</v>
-      </c>
-      <c r="CJ5">
-        <v>1</v>
-      </c>
-      <c r="CK5">
-        <v>2</v>
-      </c>
-      <c r="CL5">
-        <v>1</v>
-      </c>
-      <c r="CM5">
-        <v>1</v>
-      </c>
-      <c r="CN5">
-        <v>16</v>
-      </c>
-      <c r="CO5">
-        <v>4</v>
-      </c>
-      <c r="CP5">
-        <v>4</v>
-      </c>
-      <c r="CQ5">
-        <v>2</v>
-      </c>
-      <c r="CR5">
-        <v>1</v>
-      </c>
-      <c r="CS5">
-        <v>5</v>
-      </c>
-      <c r="CT5">
-        <v>1</v>
-      </c>
-      <c r="CU5">
-        <v>4</v>
-      </c>
-      <c r="CV5">
-        <v>1</v>
-      </c>
-      <c r="CW5">
-        <v>1</v>
-      </c>
-      <c r="CX5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
+      <c r="BG8" s="5">
+        <v>25</v>
+      </c>
+      <c r="BH8" s="5">
+        <v>46</v>
+      </c>
+      <c r="BI8" s="5">
+        <v>776</v>
+      </c>
+      <c r="BJ8" s="5">
+        <v>26</v>
+      </c>
+      <c r="BK8" s="5">
+        <v>28</v>
+      </c>
+      <c r="BL8" s="5">
+        <v>80</v>
+      </c>
+      <c r="BM8" s="5">
+        <v>48</v>
+      </c>
+      <c r="BN8" s="5">
+        <v>28</v>
+      </c>
+      <c r="BO8" s="5">
+        <v>60</v>
+      </c>
+      <c r="BP8" s="5">
+        <v>50</v>
+      </c>
+      <c r="BQ8" s="5">
+        <v>28</v>
+      </c>
+      <c r="BR8" s="5">
+        <v>29</v>
+      </c>
+      <c r="BS8" s="5">
+        <v>20</v>
+      </c>
+      <c r="BT8" s="5">
+        <v>28</v>
+      </c>
+      <c r="BU8" s="5">
+        <v>20</v>
+      </c>
+      <c r="BV8" s="5">
+        <v>15</v>
+      </c>
+      <c r="BW8" s="5">
+        <v>43</v>
+      </c>
+      <c r="BX8" s="5">
+        <v>20</v>
+      </c>
+      <c r="BY8" s="5">
+        <v>30</v>
+      </c>
+      <c r="BZ8" s="5">
+        <v>20</v>
+      </c>
+      <c r="CA8" s="5">
+        <v>12</v>
+      </c>
+      <c r="CB8" s="5">
+        <v>12</v>
+      </c>
+      <c r="CC8" s="5">
+        <v>34</v>
+      </c>
+      <c r="CD8" s="5">
+        <v>32</v>
+      </c>
+      <c r="CE8" s="5">
+        <v>45</v>
+      </c>
+      <c r="CF8" s="5">
+        <v>22</v>
+      </c>
+      <c r="CG8" s="5">
+        <v>60</v>
+      </c>
+      <c r="CH8" s="5">
+        <v>20</v>
+      </c>
+      <c r="CI8" s="5">
+        <v>140</v>
+      </c>
+      <c r="CJ8" s="5">
+        <v>29</v>
+      </c>
+      <c r="CK8" s="5">
+        <v>23</v>
+      </c>
+      <c r="CL8" s="5">
+        <v>100</v>
+      </c>
+      <c r="CM8" s="5">
+        <v>13</v>
+      </c>
+      <c r="CN8" s="5">
+        <v>37</v>
+      </c>
+      <c r="CO8" s="5">
+        <v>17</v>
+      </c>
+      <c r="CP8" s="5">
+        <v>20</v>
+      </c>
+      <c r="CQ8" s="5">
+        <v>14</v>
+      </c>
+      <c r="CR8" s="5">
+        <v>27</v>
+      </c>
+      <c r="CS8" s="5">
+        <v>20</v>
+      </c>
+      <c r="CT8" s="5">
         <v>11</v>
       </c>
-      <c r="G6">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>6.5</v>
-      </c>
-      <c r="J6">
-        <v>12</v>
-      </c>
-      <c r="K6">
-        <v>12</v>
-      </c>
-      <c r="L6">
-        <v>11</v>
-      </c>
-      <c r="M6">
+      <c r="CU8" s="5">
+        <v>20</v>
+      </c>
+      <c r="CV8" s="5">
         <v>15</v>
       </c>
-      <c r="N6">
-        <v>24</v>
-      </c>
-      <c r="O6">
-        <v>10</v>
-      </c>
-      <c r="P6">
-        <v>12</v>
-      </c>
-      <c r="Q6">
-        <v>9</v>
-      </c>
-      <c r="R6">
-        <v>12</v>
-      </c>
-      <c r="S6">
-        <v>15</v>
-      </c>
-      <c r="T6">
-        <v>12</v>
-      </c>
-      <c r="U6">
-        <v>11.5</v>
-      </c>
-      <c r="V6">
-        <v>12</v>
-      </c>
-      <c r="W6">
-        <v>11</v>
-      </c>
-      <c r="X6">
-        <v>7.5</v>
-      </c>
-      <c r="Y6">
-        <v>3.5</v>
-      </c>
-      <c r="Z6">
-        <v>12</v>
-      </c>
-      <c r="AA6">
-        <v>8</v>
-      </c>
-      <c r="AB6">
-        <v>12.5</v>
-      </c>
-      <c r="AC6">
-        <v>10</v>
-      </c>
-      <c r="AD6">
-        <v>3</v>
-      </c>
-      <c r="AE6">
-        <v>16</v>
-      </c>
-      <c r="AF6">
-        <v>13</v>
-      </c>
-      <c r="AG6">
-        <v>17</v>
-      </c>
-      <c r="AH6">
-        <v>9.75</v>
-      </c>
-      <c r="AI6">
-        <v>13</v>
-      </c>
-      <c r="AJ6">
-        <v>6.5</v>
-      </c>
-      <c r="AK6">
-        <v>13</v>
-      </c>
-      <c r="AL6">
-        <v>13.5</v>
-      </c>
-      <c r="AM6">
-        <v>10</v>
-      </c>
-      <c r="AN6">
-        <v>11</v>
-      </c>
-      <c r="AO6">
-        <v>24</v>
-      </c>
-      <c r="AP6">
-        <v>3.5</v>
-      </c>
-      <c r="AQ6">
-        <v>12</v>
-      </c>
-      <c r="AR6">
-        <v>5.5</v>
-      </c>
-      <c r="AS6">
-        <v>14.5</v>
-      </c>
-      <c r="AT6">
-        <v>11.25</v>
-      </c>
-      <c r="AU6">
-        <v>11.5</v>
-      </c>
-      <c r="AV6">
-        <v>12</v>
-      </c>
-      <c r="AW6">
-        <v>21</v>
-      </c>
-      <c r="AX6">
-        <v>17</v>
-      </c>
-      <c r="AY6">
-        <v>9.5</v>
-      </c>
-      <c r="AZ6">
-        <v>4</v>
-      </c>
-      <c r="BA6">
-        <v>11</v>
-      </c>
-      <c r="BB6">
-        <v>11</v>
-      </c>
-      <c r="BC6">
-        <v>11</v>
-      </c>
-      <c r="BD6" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="BE6">
-        <v>11</v>
-      </c>
-      <c r="BF6">
-        <v>11.5</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>10.5</v>
-      </c>
-      <c r="BI6">
-        <v>11</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>11</v>
-      </c>
-      <c r="BL6">
-        <v>11</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>11.5</v>
-      </c>
-      <c r="BO6">
-        <v>11</v>
-      </c>
-      <c r="BP6">
-        <v>10.5</v>
-      </c>
-      <c r="BQ6">
-        <v>10</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>113</v>
-      </c>
-      <c r="BS6">
-        <v>11</v>
-      </c>
-      <c r="BT6">
-        <v>11</v>
-      </c>
-      <c r="BU6">
-        <v>11</v>
-      </c>
-      <c r="BV6">
-        <v>10.5</v>
-      </c>
-      <c r="BW6">
-        <v>0</v>
-      </c>
-      <c r="BX6">
-        <v>11</v>
-      </c>
-      <c r="BY6">
-        <v>11</v>
-      </c>
-      <c r="BZ6">
-        <v>0</v>
-      </c>
-      <c r="CA6">
-        <v>8</v>
-      </c>
-      <c r="CB6">
-        <v>2</v>
-      </c>
-      <c r="CC6">
-        <v>4</v>
-      </c>
-      <c r="CD6">
-        <v>18</v>
-      </c>
-      <c r="CE6">
-        <v>3</v>
-      </c>
-      <c r="CF6">
-        <v>6</v>
-      </c>
-      <c r="CG6">
-        <v>25</v>
-      </c>
-      <c r="CH6">
-        <v>5</v>
-      </c>
-      <c r="CI6">
-        <v>17</v>
-      </c>
-      <c r="CJ6">
-        <v>2</v>
-      </c>
-      <c r="CK6">
-        <v>3</v>
-      </c>
-      <c r="CL6">
-        <v>4</v>
-      </c>
-      <c r="CM6">
-        <v>0</v>
-      </c>
-      <c r="CN6">
-        <v>11</v>
-      </c>
-      <c r="CO6">
-        <v>6</v>
-      </c>
-      <c r="CP6">
-        <v>5</v>
-      </c>
-      <c r="CQ6">
-        <v>2</v>
-      </c>
-      <c r="CR6">
-        <v>0</v>
-      </c>
-      <c r="CS6">
-        <v>4</v>
-      </c>
-      <c r="CT6">
-        <v>3</v>
-      </c>
-      <c r="CU6">
-        <v>2</v>
-      </c>
-      <c r="CV6">
-        <v>1</v>
-      </c>
-      <c r="CW6">
-        <v>2</v>
-      </c>
-      <c r="CX6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>1</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>1</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>1</v>
-      </c>
-      <c r="BA7">
-        <v>1</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>1</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>1</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>1</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7">
-        <v>0</v>
-      </c>
-      <c r="BP7">
-        <v>0</v>
-      </c>
-      <c r="BQ7">
-        <v>0</v>
-      </c>
-      <c r="BR7">
-        <v>0</v>
-      </c>
-      <c r="BS7">
-        <v>0</v>
-      </c>
-      <c r="BT7">
-        <v>0</v>
-      </c>
-      <c r="BU7">
-        <v>0</v>
-      </c>
-      <c r="BV7">
-        <v>0</v>
-      </c>
-      <c r="BW7">
-        <v>1</v>
-      </c>
-      <c r="BX7">
-        <v>1</v>
-      </c>
-      <c r="BY7">
-        <v>1</v>
-      </c>
-      <c r="BZ7">
-        <v>2</v>
-      </c>
-      <c r="CA7">
-        <v>25</v>
-      </c>
-      <c r="CB7">
-        <v>14</v>
-      </c>
-      <c r="CC7">
-        <v>5</v>
-      </c>
-      <c r="CD7">
-        <v>27</v>
-      </c>
-      <c r="CE7">
-        <v>40</v>
-      </c>
-      <c r="CF7">
-        <v>13</v>
-      </c>
-      <c r="CG7">
-        <v>53</v>
-      </c>
-      <c r="CH7">
-        <v>17</v>
-      </c>
-      <c r="CI7">
-        <v>34</v>
-      </c>
-      <c r="CJ7">
-        <v>7</v>
-      </c>
-      <c r="CK7">
-        <v>9</v>
-      </c>
-      <c r="CL7">
-        <v>5</v>
-      </c>
-      <c r="CM7">
-        <v>10</v>
-      </c>
-      <c r="CN7">
-        <v>24</v>
-      </c>
-      <c r="CO7">
-        <v>70</v>
-      </c>
-      <c r="CP7">
-        <v>31</v>
-      </c>
-      <c r="CQ7">
-        <v>27</v>
-      </c>
-      <c r="CR7">
-        <v>8</v>
-      </c>
-      <c r="CS7">
-        <v>12</v>
-      </c>
-      <c r="CT7">
-        <v>8</v>
-      </c>
-      <c r="CU7">
-        <v>10</v>
-      </c>
-      <c r="CV7">
-        <v>7</v>
-      </c>
-      <c r="CW7">
-        <v>6</v>
-      </c>
-      <c r="CX7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <v>15</v>
-      </c>
-      <c r="H8">
-        <v>18</v>
-      </c>
-      <c r="I8">
-        <v>9</v>
-      </c>
-      <c r="J8">
-        <v>13</v>
-      </c>
-      <c r="K8">
-        <v>16</v>
-      </c>
-      <c r="L8">
-        <v>26</v>
-      </c>
-      <c r="M8">
-        <v>15</v>
-      </c>
-      <c r="N8">
-        <v>10</v>
-      </c>
-      <c r="O8">
-        <v>10</v>
-      </c>
-      <c r="P8">
-        <v>12</v>
-      </c>
-      <c r="Q8">
-        <v>19</v>
-      </c>
-      <c r="R8">
-        <v>11</v>
-      </c>
-      <c r="S8">
-        <v>14</v>
-      </c>
-      <c r="T8">
-        <v>12</v>
-      </c>
-      <c r="U8">
-        <v>15</v>
-      </c>
-      <c r="V8">
-        <v>23</v>
-      </c>
-      <c r="W8">
-        <v>16</v>
-      </c>
-      <c r="X8">
-        <v>12</v>
-      </c>
-      <c r="Y8">
-        <v>15</v>
-      </c>
-      <c r="Z8">
-        <v>13</v>
-      </c>
-      <c r="AA8">
-        <v>12</v>
-      </c>
-      <c r="AB8">
-        <v>12</v>
-      </c>
-      <c r="AC8">
-        <v>10</v>
-      </c>
-      <c r="AD8">
-        <v>10</v>
-      </c>
-      <c r="AE8">
-        <v>11</v>
-      </c>
-      <c r="AF8">
-        <v>27</v>
-      </c>
-      <c r="AG8">
-        <v>55</v>
-      </c>
-      <c r="AH8">
-        <v>18</v>
-      </c>
-      <c r="AI8">
-        <v>27</v>
-      </c>
-      <c r="AJ8">
-        <v>24</v>
-      </c>
-      <c r="AK8">
-        <v>16</v>
-      </c>
-      <c r="AL8">
-        <v>9</v>
-      </c>
-      <c r="AM8">
-        <v>26</v>
-      </c>
-      <c r="AN8">
-        <v>70</v>
-      </c>
-      <c r="AO8">
-        <v>24</v>
-      </c>
-      <c r="AP8">
+      <c r="CW8" s="5">
+        <v>59</v>
+      </c>
+      <c r="CX8" s="5">
         <v>20</v>
-      </c>
-      <c r="AQ8">
-        <v>20</v>
-      </c>
-      <c r="AR8">
-        <v>100</v>
-      </c>
-      <c r="AS8">
-        <v>16</v>
-      </c>
-      <c r="AT8">
-        <v>45</v>
-      </c>
-      <c r="AU8">
-        <v>16</v>
-      </c>
-      <c r="AV8">
-        <v>33</v>
-      </c>
-      <c r="AW8">
-        <v>40</v>
-      </c>
-      <c r="AX8">
-        <v>10</v>
-      </c>
-      <c r="AY8">
-        <v>44</v>
-      </c>
-      <c r="AZ8">
-        <v>12</v>
-      </c>
-      <c r="BA8">
-        <v>30</v>
-      </c>
-      <c r="BB8">
-        <v>26</v>
-      </c>
-      <c r="BC8">
-        <v>8</v>
-      </c>
-      <c r="BD8">
-        <v>50</v>
-      </c>
-      <c r="BE8">
-        <v>54</v>
-      </c>
-      <c r="BF8">
-        <v>11</v>
-      </c>
-      <c r="BG8">
-        <v>25</v>
-      </c>
-      <c r="BH8">
-        <v>46</v>
-      </c>
-      <c r="BI8">
-        <v>776</v>
-      </c>
-      <c r="BJ8">
-        <v>26</v>
-      </c>
-      <c r="BK8">
-        <v>28</v>
-      </c>
-      <c r="BL8">
-        <v>80</v>
-      </c>
-      <c r="BM8">
-        <v>48</v>
-      </c>
-      <c r="BN8">
-        <v>28</v>
-      </c>
-      <c r="BO8">
-        <v>60</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BQ8">
-        <v>28</v>
-      </c>
-      <c r="BR8">
-        <v>29</v>
-      </c>
-      <c r="BS8">
-        <v>20</v>
-      </c>
-      <c r="BT8">
-        <v>28</v>
-      </c>
-      <c r="BU8">
-        <v>20</v>
-      </c>
-      <c r="BV8">
-        <v>15</v>
-      </c>
-      <c r="BW8">
-        <v>43</v>
-      </c>
-      <c r="BX8">
-        <v>20</v>
-      </c>
-      <c r="BY8">
-        <v>30</v>
-      </c>
-      <c r="BZ8">
-        <v>1</v>
-      </c>
-      <c r="CA8">
-        <v>0</v>
-      </c>
-      <c r="CB8">
-        <v>11</v>
-      </c>
-      <c r="CC8">
-        <v>2</v>
-      </c>
-      <c r="CD8">
-        <v>9</v>
-      </c>
-      <c r="CE8">
-        <v>12</v>
-      </c>
-      <c r="CF8">
-        <v>7</v>
-      </c>
-      <c r="CG8">
-        <v>27</v>
-      </c>
-      <c r="CH8">
-        <v>7</v>
-      </c>
-      <c r="CI8">
-        <v>13</v>
-      </c>
-      <c r="CJ8">
-        <v>5</v>
-      </c>
-      <c r="CK8">
-        <v>4</v>
-      </c>
-      <c r="CL8">
-        <v>6</v>
-      </c>
-      <c r="CM8">
-        <v>8</v>
-      </c>
-      <c r="CN8">
-        <v>18</v>
-      </c>
-      <c r="CO8">
-        <v>26</v>
-      </c>
-      <c r="CP8">
-        <v>13</v>
-      </c>
-      <c r="CQ8">
-        <v>16</v>
-      </c>
-      <c r="CR8">
-        <v>11</v>
-      </c>
-      <c r="CS8">
-        <v>9</v>
-      </c>
-      <c r="CT8">
-        <v>3</v>
-      </c>
-      <c r="CU8">
-        <v>4</v>
-      </c>
-      <c r="CV8">
-        <v>4</v>
-      </c>
-      <c r="CW8">
-        <v>3</v>
-      </c>
-      <c r="CX8">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:102" x14ac:dyDescent="0.5">
@@ -3796,7 +3800,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10">
         <v>79</v>
@@ -6876,7 +6880,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -7184,7 +7188,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -8108,7 +8112,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24">
         <v>164</v>
@@ -8419,10 +8423,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3FE33C-2A50-425F-BF9E-B580865748FC}">
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A67" activeCellId="1" sqref="A69:XFD69 A67:XFD67"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
@@ -12305,7 +12309,7 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B58">
         <v>3.28</v>
@@ -12373,7 +12377,7 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59">
         <v>3.27</v>
@@ -12917,149 +12921,149 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67">
-        <v>3.24</v>
-      </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
-      <c r="D67">
-        <v>10</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>28</v>
+        <v>112</v>
+      </c>
+      <c r="B67" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="C67" s="5">
+        <v>2</v>
+      </c>
+      <c r="D67" s="5">
+        <v>10.5</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0</v>
+      </c>
+      <c r="F67" s="5">
+        <v>50</v>
       </c>
       <c r="G67">
-        <v>284</v>
+        <v>23</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J67">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
       <c r="N67">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="O67">
         <v>0</v>
       </c>
       <c r="P67">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="Q67">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="R67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V67">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B68">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G68">
-        <v>157</v>
+        <v>284</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J68">
+        <v>6</v>
+      </c>
+      <c r="K68">
+        <v>101</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>47</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>84</v>
+      </c>
+      <c r="Q68">
+        <v>14</v>
+      </c>
+      <c r="R68">
         <v>5</v>
       </c>
-      <c r="K68">
-        <v>23</v>
-      </c>
-      <c r="L68">
-        <v>3</v>
-      </c>
-      <c r="M68">
-        <v>1</v>
-      </c>
-      <c r="N68">
-        <v>3</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>31</v>
-      </c>
-      <c r="Q68">
-        <v>22</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
       <c r="S68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U68">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="V68">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B69">
         <v>3.23</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69">
         <v>11</v>
@@ -13068,128 +13072,128 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G69">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J69">
         <v>5</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O69">
         <v>0</v>
       </c>
       <c r="P69">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="Q69">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="R69">
         <v>0</v>
       </c>
       <c r="S69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U69">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="V69">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70">
-        <v>3.23</v>
-      </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
-      <c r="D70">
-        <v>11</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>20</v>
+        <v>121</v>
+      </c>
+      <c r="B70" s="5">
+        <v>3.19</v>
+      </c>
+      <c r="C70" s="5">
+        <v>9</v>
+      </c>
+      <c r="D70" s="5">
+        <v>24</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0</v>
+      </c>
+      <c r="F70" s="5">
+        <v>29</v>
       </c>
       <c r="G70">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O70">
         <v>0</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q70">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U70">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B71">
         <v>3.23</v>
@@ -13198,265 +13202,2101 @@
         <v>3</v>
       </c>
       <c r="D71">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
+        <v>28</v>
+      </c>
+      <c r="G71">
+        <v>59</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
         <v>15</v>
       </c>
-      <c r="G71">
-        <v>27</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>8</v>
-      </c>
       <c r="J71">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71">
         <v>1</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O71">
         <v>0</v>
       </c>
       <c r="P71">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Q71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R71">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U71">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B72">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="C72">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G72">
-        <v>179</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J72">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K72">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O72">
         <v>0</v>
       </c>
       <c r="P72">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R72">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="S72">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T72">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U72">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="V72">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B73">
-        <v>3.2</v>
+        <v>3.23</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G73">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="H73">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="J73">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73">
         <v>1</v>
       </c>
       <c r="M73">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="N73">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O73">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P73">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="Q73">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="R73">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="S73">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U73">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V73">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B74">
+        <v>3.22</v>
+      </c>
+      <c r="C74">
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>43</v>
+      </c>
+      <c r="G74">
+        <v>179</v>
+      </c>
+      <c r="H74">
+        <v>12</v>
+      </c>
+      <c r="I74">
+        <v>6</v>
+      </c>
+      <c r="J74">
+        <v>12</v>
+      </c>
+      <c r="K74">
+        <v>42</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>10</v>
+      </c>
+      <c r="N74">
+        <v>15</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>58</v>
+      </c>
+      <c r="Q74">
+        <v>5</v>
+      </c>
+      <c r="R74">
+        <v>27</v>
+      </c>
+      <c r="S74">
+        <v>7</v>
+      </c>
+      <c r="T74">
+        <v>5</v>
+      </c>
+      <c r="U74">
+        <v>17</v>
+      </c>
+      <c r="V74">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75">
         <v>3.2</v>
       </c>
-      <c r="C74">
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>11</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>20</v>
+      </c>
+      <c r="G75">
+        <v>163</v>
+      </c>
+      <c r="H75">
+        <v>16</v>
+      </c>
+      <c r="I75">
+        <v>48</v>
+      </c>
+      <c r="J75">
+        <v>108</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>32</v>
+      </c>
+      <c r="N75">
+        <v>5</v>
+      </c>
+      <c r="O75">
+        <v>8</v>
+      </c>
+      <c r="P75">
+        <v>97</v>
+      </c>
+      <c r="Q75">
+        <v>15</v>
+      </c>
+      <c r="R75">
+        <v>20</v>
+      </c>
+      <c r="S75">
+        <v>5</v>
+      </c>
+      <c r="T75">
+        <v>3</v>
+      </c>
+      <c r="U75">
+        <v>8</v>
+      </c>
+      <c r="V75">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76">
+        <v>3.2</v>
+      </c>
+      <c r="C76">
         <v>10</v>
       </c>
-      <c r="D74">
+      <c r="D76">
         <v>11</v>
       </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
         <v>30</v>
       </c>
-      <c r="G74">
+      <c r="G76">
         <v>118</v>
       </c>
-      <c r="H74">
-        <v>4</v>
-      </c>
-      <c r="I74">
-        <v>2</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="K74">
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
         <v>29</v>
       </c>
-      <c r="L74">
+      <c r="L76">
         <v>14</v>
       </c>
-      <c r="M74">
+      <c r="M76">
         <v>6</v>
       </c>
-      <c r="N74">
+      <c r="N76">
         <v>18</v>
       </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74">
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
         <v>23</v>
       </c>
-      <c r="Q74">
+      <c r="Q76">
         <v>6</v>
       </c>
-      <c r="R74">
+      <c r="R76">
         <v>5</v>
       </c>
-      <c r="S74">
-        <v>1</v>
-      </c>
-      <c r="T74">
-        <v>4</v>
-      </c>
-      <c r="U74">
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <v>4</v>
+      </c>
+      <c r="U76">
         <v>8</v>
       </c>
-      <c r="V74">
+      <c r="V76">
         <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A77" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="5">
+        <v>3.18</v>
+      </c>
+      <c r="C77" s="5">
+        <v>3</v>
+      </c>
+      <c r="D77" s="5">
+        <v>24</v>
+      </c>
+      <c r="E77" s="5">
+        <v>1</v>
+      </c>
+      <c r="F77" s="5">
+        <v>20</v>
+      </c>
+      <c r="G77">
+        <v>21</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>4</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>9</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>1</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A78" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5">
+        <v>24</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0</v>
+      </c>
+      <c r="F78" s="5">
+        <v>12</v>
+      </c>
+      <c r="G78">
+        <v>48</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>2</v>
+      </c>
+      <c r="Q78">
+        <v>4</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>2</v>
+      </c>
+      <c r="T78">
+        <v>2</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A79" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5">
+        <v>12</v>
+      </c>
+      <c r="E79" s="5">
+        <v>0</v>
+      </c>
+      <c r="F79" s="5">
+        <v>12</v>
+      </c>
+      <c r="G79">
+        <v>37</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>8</v>
+      </c>
+      <c r="J79">
+        <v>9</v>
+      </c>
+      <c r="K79">
+        <v>11</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>19</v>
+      </c>
+      <c r="Q79">
+        <v>13</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79">
+        <v>6</v>
+      </c>
+      <c r="T79">
+        <v>4</v>
+      </c>
+      <c r="U79">
+        <v>6</v>
+      </c>
+      <c r="V79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A80" t="s">
+        <v>135</v>
+      </c>
+      <c r="B80" s="5">
+        <v>3.16</v>
+      </c>
+      <c r="C80" s="5">
+        <v>2</v>
+      </c>
+      <c r="D80" s="5">
+        <v>18.5</v>
+      </c>
+      <c r="E80" s="5">
+        <v>1</v>
+      </c>
+      <c r="F80" s="5">
+        <v>34</v>
+      </c>
+      <c r="G80">
+        <v>17</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>7</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>2</v>
+      </c>
+      <c r="U80">
+        <v>1</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A81" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" s="5">
+        <v>3.14</v>
+      </c>
+      <c r="C81" s="5">
+        <v>2</v>
+      </c>
+      <c r="D81" s="5">
+        <v>10</v>
+      </c>
+      <c r="E81" s="5">
+        <v>1</v>
+      </c>
+      <c r="F81" s="5">
+        <v>32</v>
+      </c>
+      <c r="G81">
+        <v>54</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>15</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>3</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>8</v>
+      </c>
+      <c r="T81">
+        <v>6</v>
+      </c>
+      <c r="U81">
+        <v>2</v>
+      </c>
+      <c r="V81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A82" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="5">
+        <v>3.14</v>
+      </c>
+      <c r="C82" s="5">
+        <v>1</v>
+      </c>
+      <c r="D82" s="5">
+        <v>12</v>
+      </c>
+      <c r="E82" s="5">
+        <v>2</v>
+      </c>
+      <c r="F82" s="5">
+        <v>45</v>
+      </c>
+      <c r="G82">
+        <v>52</v>
+      </c>
+      <c r="H82">
+        <v>4</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>3</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>7</v>
+      </c>
+      <c r="Q82">
+        <v>6</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>4</v>
+      </c>
+      <c r="U82">
+        <v>7</v>
+      </c>
+      <c r="V82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A83" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" s="5">
+        <v>3.13</v>
+      </c>
+      <c r="C83" s="5">
+        <v>5</v>
+      </c>
+      <c r="D83" s="5">
+        <v>8</v>
+      </c>
+      <c r="E83" s="5">
+        <v>1</v>
+      </c>
+      <c r="F83" s="5">
+        <v>22</v>
+      </c>
+      <c r="G83">
+        <v>23</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>8</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>3</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>4</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>4</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>4</v>
+      </c>
+      <c r="V83">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A84" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" s="5">
+        <v>3.12</v>
+      </c>
+      <c r="C84" s="5">
+        <v>2</v>
+      </c>
+      <c r="D84" s="5">
+        <v>9</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0</v>
+      </c>
+      <c r="F84" s="5">
+        <v>60</v>
+      </c>
+      <c r="G84">
+        <v>150</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>8</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>7</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>74</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>67</v>
+      </c>
+      <c r="T84">
+        <v>15</v>
+      </c>
+      <c r="U84">
+        <v>3</v>
+      </c>
+      <c r="V84">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A85" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" s="5">
+        <v>3.12</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2</v>
+      </c>
+      <c r="D85" s="5">
+        <v>12</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1</v>
+      </c>
+      <c r="F85" s="5">
+        <v>20</v>
+      </c>
+      <c r="G85">
+        <v>61</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>4</v>
+      </c>
+      <c r="J85">
+        <v>47</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
+      </c>
+      <c r="L85">
+        <v>10</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>7</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>16</v>
+      </c>
+      <c r="Q85">
+        <v>3</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>2</v>
+      </c>
+      <c r="U85">
+        <v>3</v>
+      </c>
+      <c r="V85">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A86" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="5">
+        <v>3.12</v>
+      </c>
+      <c r="C86" s="5">
+        <v>1</v>
+      </c>
+      <c r="D86" s="5">
+        <v>14</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0</v>
+      </c>
+      <c r="F86" s="5">
+        <v>140</v>
+      </c>
+      <c r="G86">
+        <v>61</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+      <c r="I86">
+        <v>5</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>5</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>5</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>6</v>
+      </c>
+      <c r="Q86">
+        <v>4</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>6</v>
+      </c>
+      <c r="T86">
+        <v>5</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
+      <c r="V86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A87" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" s="5">
+        <v>3.12</v>
+      </c>
+      <c r="C87" s="5">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5">
+        <v>17</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0</v>
+      </c>
+      <c r="F87" s="5">
+        <v>29</v>
+      </c>
+      <c r="G87">
+        <v>21</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>4</v>
+      </c>
+      <c r="J87">
+        <v>2</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <v>8</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>6</v>
+      </c>
+      <c r="Q87">
+        <v>2</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>2</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>3</v>
+      </c>
+      <c r="V87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A88" t="s">
+        <v>143</v>
+      </c>
+      <c r="B88" s="5">
+        <v>3.12</v>
+      </c>
+      <c r="C88" s="5">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5">
+        <v>3</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0</v>
+      </c>
+      <c r="F88" s="5">
+        <v>23</v>
+      </c>
+      <c r="G88">
+        <v>18</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>7</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>3</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A89" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" s="5">
+        <v>3.12</v>
+      </c>
+      <c r="C89" s="5">
+        <v>1</v>
+      </c>
+      <c r="D89" s="5">
+        <v>9</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0</v>
+      </c>
+      <c r="F89" s="5">
+        <v>100</v>
+      </c>
+      <c r="G89">
+        <v>16</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>5</v>
+      </c>
+      <c r="J89">
+        <v>5</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>5</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>9</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>1</v>
+      </c>
+      <c r="U89">
+        <v>6</v>
+      </c>
+      <c r="V89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A90" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" s="5">
+        <v>3.11</v>
+      </c>
+      <c r="C90" s="5">
+        <v>1</v>
+      </c>
+      <c r="D90" s="5">
+        <v>3</v>
+      </c>
+      <c r="E90" s="5">
+        <v>0</v>
+      </c>
+      <c r="F90" s="5">
+        <v>13</v>
+      </c>
+      <c r="G90">
+        <v>20</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>1</v>
+      </c>
+      <c r="V90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A91" t="s">
+        <v>146</v>
+      </c>
+      <c r="B91" s="5">
+        <v>3.09</v>
+      </c>
+      <c r="C91" s="5">
+        <v>2</v>
+      </c>
+      <c r="D91" s="5">
+        <v>21</v>
+      </c>
+      <c r="E91" s="5">
+        <v>1</v>
+      </c>
+      <c r="F91" s="5">
+        <v>37</v>
+      </c>
+      <c r="G91">
+        <v>131</v>
+      </c>
+      <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91">
+        <v>27</v>
+      </c>
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="K91">
+        <v>49</v>
+      </c>
+      <c r="L91">
+        <v>8</v>
+      </c>
+      <c r="M91">
+        <v>6</v>
+      </c>
+      <c r="N91">
+        <v>7</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>32</v>
+      </c>
+      <c r="Q91">
+        <v>7</v>
+      </c>
+      <c r="R91">
+        <v>5</v>
+      </c>
+      <c r="S91">
+        <v>3</v>
+      </c>
+      <c r="T91">
+        <v>9</v>
+      </c>
+      <c r="U91">
+        <v>17</v>
+      </c>
+      <c r="V91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A92" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="5">
+        <v>3.09</v>
+      </c>
+      <c r="C92" s="5">
+        <v>2</v>
+      </c>
+      <c r="D92" s="5">
+        <v>15</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0</v>
+      </c>
+      <c r="F92" s="5">
+        <v>17</v>
+      </c>
+      <c r="G92">
+        <v>107</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>23</v>
+      </c>
+      <c r="J92">
+        <v>4</v>
+      </c>
+      <c r="K92">
+        <v>3</v>
+      </c>
+      <c r="L92">
+        <v>5</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>10</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>17</v>
+      </c>
+      <c r="Q92">
+        <v>11</v>
+      </c>
+      <c r="R92">
+        <v>3</v>
+      </c>
+      <c r="S92">
+        <v>8</v>
+      </c>
+      <c r="T92">
+        <v>18</v>
+      </c>
+      <c r="U92">
+        <v>4</v>
+      </c>
+      <c r="V92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A93" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" s="5">
+        <v>3.09</v>
+      </c>
+      <c r="C93" s="5">
+        <v>1</v>
+      </c>
+      <c r="D93" s="5">
+        <v>11</v>
+      </c>
+      <c r="E93" s="5">
+        <v>0</v>
+      </c>
+      <c r="F93" s="5">
+        <v>20</v>
+      </c>
+      <c r="G93">
+        <v>106</v>
+      </c>
+      <c r="H93">
+        <v>3</v>
+      </c>
+      <c r="I93">
+        <v>12</v>
+      </c>
+      <c r="J93">
+        <v>14</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>25</v>
+      </c>
+      <c r="N93">
+        <v>96</v>
+      </c>
+      <c r="O93">
+        <v>17</v>
+      </c>
+      <c r="P93">
+        <v>41</v>
+      </c>
+      <c r="Q93">
+        <v>4</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>6</v>
+      </c>
+      <c r="T93">
+        <v>3</v>
+      </c>
+      <c r="U93">
+        <v>9</v>
+      </c>
+      <c r="V93">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A94" t="s">
+        <v>149</v>
+      </c>
+      <c r="B94" s="5">
+        <v>3.09</v>
+      </c>
+      <c r="C94" s="5">
+        <v>2</v>
+      </c>
+      <c r="D94" s="5">
+        <v>17</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0</v>
+      </c>
+      <c r="F94" s="5">
+        <v>14</v>
+      </c>
+      <c r="G94">
+        <v>82</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>13</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>5</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>15</v>
+      </c>
+      <c r="Q94">
+        <v>13</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>1</v>
+      </c>
+      <c r="U94">
+        <v>8</v>
+      </c>
+      <c r="V94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A95" t="s">
+        <v>150</v>
+      </c>
+      <c r="B95" s="5">
+        <v>3.09</v>
+      </c>
+      <c r="C95" s="5">
+        <v>1</v>
+      </c>
+      <c r="D95" s="5">
+        <v>12</v>
+      </c>
+      <c r="E95" s="5">
+        <v>3</v>
+      </c>
+      <c r="F95" s="5">
+        <v>27</v>
+      </c>
+      <c r="G95">
+        <v>30</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>5</v>
+      </c>
+      <c r="J95">
+        <v>5</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>2</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="S95">
+        <v>1</v>
+      </c>
+      <c r="T95">
+        <v>4</v>
+      </c>
+      <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A96" t="s">
+        <v>151</v>
+      </c>
+      <c r="B96" s="5">
+        <v>3.09</v>
+      </c>
+      <c r="C96" s="5">
+        <v>3</v>
+      </c>
+      <c r="D96" s="5">
+        <v>18</v>
+      </c>
+      <c r="E96" s="5">
+        <v>0</v>
+      </c>
+      <c r="F96" s="5">
+        <v>20</v>
+      </c>
+      <c r="G96">
+        <v>27</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>3</v>
+      </c>
+      <c r="K96">
+        <v>7</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>5</v>
+      </c>
+      <c r="N96">
+        <v>9</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>9</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>2</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>10</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A97" t="s">
+        <v>152</v>
+      </c>
+      <c r="B97" s="5">
+        <v>3.09</v>
+      </c>
+      <c r="C97" s="5">
+        <v>1</v>
+      </c>
+      <c r="D97" s="5">
+        <v>12</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0</v>
+      </c>
+      <c r="F97" s="5">
+        <v>11</v>
+      </c>
+      <c r="G97">
+        <v>25</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>15</v>
+      </c>
+      <c r="J97">
+        <v>7</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>7</v>
+      </c>
+      <c r="M97">
+        <v>3</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>9</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>1</v>
+      </c>
+      <c r="U97">
+        <v>14</v>
+      </c>
+      <c r="V97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A98" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" s="5">
+        <v>3.09</v>
+      </c>
+      <c r="C98" s="5">
+        <v>4</v>
+      </c>
+      <c r="D98" s="5">
+        <v>12</v>
+      </c>
+      <c r="E98" s="5">
+        <v>2</v>
+      </c>
+      <c r="F98" s="5">
+        <v>20</v>
+      </c>
+      <c r="G98">
+        <v>25</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>4</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>6</v>
+      </c>
+      <c r="U98">
+        <v>2</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A99" t="s">
+        <v>156</v>
+      </c>
+      <c r="B99" s="5">
+        <v>3.09</v>
+      </c>
+      <c r="C99" s="5">
+        <v>1</v>
+      </c>
+      <c r="D99" s="5">
+        <v>9</v>
+      </c>
+      <c r="E99" s="5">
+        <v>1</v>
+      </c>
+      <c r="F99" s="5">
+        <v>15</v>
+      </c>
+      <c r="G99">
+        <v>17</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <v>4</v>
+      </c>
+      <c r="J99">
+        <v>9</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>5</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>2</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>1</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>5</v>
+      </c>
+      <c r="V99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A100" t="s">
+        <v>154</v>
+      </c>
+      <c r="B100" s="5">
+        <v>3.09</v>
+      </c>
+      <c r="C100" s="5">
+        <v>1</v>
+      </c>
+      <c r="D100" s="5">
+        <v>10</v>
+      </c>
+      <c r="E100" s="5">
+        <v>0</v>
+      </c>
+      <c r="F100" s="5">
+        <v>59</v>
+      </c>
+      <c r="G100">
+        <v>12</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>4</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>7</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>2</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A101" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101" s="5">
+        <v>3.09</v>
+      </c>
+      <c r="C101" s="5">
+        <v>3</v>
+      </c>
+      <c r="D101" s="5">
+        <v>12</v>
+      </c>
+      <c r="E101" s="5">
+        <v>0</v>
+      </c>
+      <c r="F101" s="5">
+        <v>20</v>
+      </c>
+      <c r="G101">
+        <v>12</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>3</v>
+      </c>
+      <c r="J101">
+        <v>4</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>11</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>5</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>4</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13710,14 +15550,14 @@
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EE59A7C-4435-46EC-BB95-75CCDBC60BBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="eb7e66da-37c8-4491-a77c-99bd61087550"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="eb7e66da-37c8-4491-a77c-99bd61087550"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DA3_Data.xlsx
+++ b/DA3_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365tsukuba.sharepoint.com/sites/DA3662/Shared Documents/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkyus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2542" documentId="8_{231BD91D-1781-744D-87C5-9198913F0912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{596FBB5A-5E2D-4AD8-A890-E82C357579EE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19B4EFB-061E-4ED4-B1BB-0E1AED4C8CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1272" yWindow="2304" windowWidth="17208" windowHeight="12204" xr2:uid="{CB46426A-DED2-C442-A925-CD13B07AE853}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" activeTab="1" xr2:uid="{CB46426A-DED2-C442-A925-CD13B07AE853}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Price category" sheetId="3" r:id="rId3"/>
     <sheet name="Website" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,12 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="158">
   <si>
     <t>丸山</t>
   </si>
@@ -579,6 +576,10 @@
   </si>
   <si>
     <t>Toripaitan Ramen Jiyugaoka kageyamarou shinjyukutohoten</t>
+  </si>
+  <si>
+    <t>Chasyu</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1015,21 +1016,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429D35B8-1ED7-4745-97DD-C4F276540C3F}">
   <dimension ref="A1:CX24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="CE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="BP9" sqref="BP9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.90625" customWidth="1"/>
-    <col min="3" max="27" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="16.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.921875" customWidth="1"/>
+    <col min="3" max="27" width="11.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1331,7 +1332,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1639,7 +1640,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1947,7 +1948,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="5" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -2563,7 +2564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:102" s="5" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3795,7 +3796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -4103,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -4411,7 +4412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:102" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:102" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -5027,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:102" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:102" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -5335,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:102" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:102" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -5643,7 +5644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:102" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:102" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -5951,7 +5952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:102" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:102" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -6259,7 +6260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:102" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:102" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -6567,7 +6568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:102" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:102" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -6875,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:102" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:102" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -7183,7 +7184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:102" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:102" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -7491,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:102" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:102" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -7799,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:102" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:102" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -8107,7 +8108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:102" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:102" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -8425,13 +8426,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3FE33C-2A50-425F-BF9E-B580865748FC}">
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -8478,7 +8479,7 @@
         <v>21</v>
       </c>
       <c r="P1" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="Q1" t="s">
         <v>23</v>
@@ -8499,7 +8500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -8567,7 +8568,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -8635,7 +8636,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -8703,7 +8704,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -8771,7 +8772,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -8839,7 +8840,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -8907,7 +8908,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -8975,7 +8976,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -9043,7 +9044,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -9111,7 +9112,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -9179,7 +9180,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -9247,7 +9248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -9315,7 +9316,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -9383,7 +9384,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -9451,7 +9452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -9519,7 +9520,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -9587,7 +9588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -9655,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -9723,7 +9724,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -9791,7 +9792,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -9859,7 +9860,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -9927,7 +9928,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -9995,7 +9996,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -10063,7 +10064,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -10131,7 +10132,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -10199,7 +10200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -10267,7 +10268,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -10335,7 +10336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -10403,7 +10404,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -10471,7 +10472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -10539,7 +10540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -10607,7 +10608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -10675,7 +10676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -10743,7 +10744,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -10811,7 +10812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -10879,7 +10880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -10947,7 +10948,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -11015,7 +11016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -11083,7 +11084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -11151,7 +11152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -11219,7 +11220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -11287,7 +11288,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
         <v>60</v>
       </c>
@@ -11355,7 +11356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -11423,7 +11424,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -11491,7 +11492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -11559,7 +11560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -11627,7 +11628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
         <v>65</v>
       </c>
@@ -11695,7 +11696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
         <v>66</v>
       </c>
@@ -11763,7 +11764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -11831,7 +11832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -11899,7 +11900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -11967,7 +11968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -12035,7 +12036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -12103,7 +12104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -12171,7 +12172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
         <v>100</v>
       </c>
@@ -12239,7 +12240,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -12307,7 +12308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -12375,7 +12376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -12443,7 +12444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
         <v>104</v>
       </c>
@@ -12511,7 +12512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
         <v>105</v>
       </c>
@@ -12579,7 +12580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
         <v>106</v>
       </c>
@@ -12647,7 +12648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
         <v>108</v>
       </c>
@@ -12715,7 +12716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -12783,7 +12784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -12851,7 +12852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A66" t="s">
         <v>111</v>
       </c>
@@ -12919,7 +12920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -12987,7 +12988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A68" t="s">
         <v>113</v>
       </c>
@@ -13055,7 +13056,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A69" t="s">
         <v>114</v>
       </c>
@@ -13123,7 +13124,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
         <v>121</v>
       </c>
@@ -13191,7 +13192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A71" t="s">
         <v>115</v>
       </c>
@@ -13259,7 +13260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
         <v>116</v>
       </c>
@@ -13327,7 +13328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A73" t="s">
         <v>117</v>
       </c>
@@ -13395,7 +13396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -13463,7 +13464,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A75" t="s">
         <v>119</v>
       </c>
@@ -13531,7 +13532,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A76" t="s">
         <v>120</v>
       </c>
@@ -13599,7 +13600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A77" t="s">
         <v>132</v>
       </c>
@@ -13667,7 +13668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
         <v>133</v>
       </c>
@@ -13735,7 +13736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
         <v>134</v>
       </c>
@@ -13803,7 +13804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
         <v>135</v>
       </c>
@@ -13871,7 +13872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
         <v>136</v>
       </c>
@@ -13939,7 +13940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A82" t="s">
         <v>137</v>
       </c>
@@ -14007,7 +14008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A83" t="s">
         <v>138</v>
       </c>
@@ -14075,7 +14076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A84" t="s">
         <v>139</v>
       </c>
@@ -14143,7 +14144,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A85" t="s">
         <v>140</v>
       </c>
@@ -14211,7 +14212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A86" t="s">
         <v>141</v>
       </c>
@@ -14279,7 +14280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A87" t="s">
         <v>142</v>
       </c>
@@ -14347,7 +14348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A88" t="s">
         <v>143</v>
       </c>
@@ -14415,7 +14416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
         <v>144</v>
       </c>
@@ -14483,7 +14484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A90" t="s">
         <v>145</v>
       </c>
@@ -14551,7 +14552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A91" t="s">
         <v>146</v>
       </c>
@@ -14619,7 +14620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A92" t="s">
         <v>147</v>
       </c>
@@ -14687,7 +14688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A93" t="s">
         <v>148</v>
       </c>
@@ -14755,7 +14756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A94" t="s">
         <v>149</v>
       </c>
@@ -14823,7 +14824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A95" t="s">
         <v>150</v>
       </c>
@@ -14891,7 +14892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A96" t="s">
         <v>151</v>
       </c>
@@ -14959,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
         <v>152</v>
       </c>
@@ -15027,7 +15028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A98" t="s">
         <v>153</v>
       </c>
@@ -15095,7 +15096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A99" t="s">
         <v>156</v>
       </c>
@@ -15163,7 +15164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A100" t="s">
         <v>154</v>
       </c>
@@ -15231,7 +15232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.6">
       <c r="A101" t="s">
         <v>155</v>
       </c>
@@ -15313,9 +15314,9 @@
       <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -15323,7 +15324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -15331,7 +15332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -15339,7 +15340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -15347,7 +15348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -15355,7 +15356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -15378,9 +15379,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="19.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -15392,21 +15393,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007AD765E810DF2C46A224C7219DA9E3D5" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87bd62a79792eb1b5e32a2f33c21c72d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="eb7e66da-37c8-4491-a77c-99bd61087550" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="820a086ba8b9cebfc3ca9ed1a471e39b" ns2:_="">
     <xsd:import namespace="eb7e66da-37c8-4491-a77c-99bd61087550"/>
@@ -15538,10 +15524,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F401309-058B-4CEC-9B75-40E98D0E824C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC0CB508-1971-4624-B995-03ECB9932322}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="eb7e66da-37c8-4491-a77c-99bd61087550"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15563,19 +15574,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC0CB508-1971-4624-B995-03ECB9932322}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F401309-058B-4CEC-9B75-40E98D0E824C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="eb7e66da-37c8-4491-a77c-99bd61087550"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>